--- a/biology/Zoologie/Dolichophonus_loudonensis/Dolichophonus_loudonensis.xlsx
+++ b/biology/Zoologie/Dolichophonus_loudonensis/Dolichophonus_loudonensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dolichophoniidae, Dolichophonus
 Dolichophonus loudonensis, unique représentant du genre Dolichophonus et  de la famille des Dolichophoniidae, est une espèce fossile de scorpions.
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été découverte dans les Pentland Hills en Écosse. Elle date du Silurien[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été découverte dans les Pentland Hills en Écosse. Elle date du Silurien.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Palaeophonus loudonensis par Laurie en 1899. Elle est placée dans le genre Dolichophonus par Petrunkevitch en 1949[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Palaeophonus loudonensis par Laurie en 1899. Elle est placée dans le genre Dolichophonus par Petrunkevitch en 1949.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de   et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, Loudonia.
 </t>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Laurie, 1899 : « On a Silurian scorpion and some additional eurypterid remains from the Pentland Hills. » Transactions of the Royal Society of Edinburgh, vol. 39, p. 575-590 (texte intégral).
 Petrunkevitch, 1949 : « A study of the structure classification and relationships of the Palaeozoic Arachnida based on the collections of the British Museum. » Transactions of the Connecticut Academy of Arts and Sciences, vol. 37, p. 69-315.
